--- a/stock_historical_data/1wk/TVSMOTOR.NS.xlsx
+++ b/stock_historical_data/1wk/TVSMOTOR.NS.xlsx
@@ -70189,7 +70189,9 @@
       <c r="Q1245" t="n">
         <v>0</v>
       </c>
-      <c r="R1245" t="inlineStr"/>
+      <c r="R1245" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TVSMOTOR.NS.xlsx
+++ b/stock_historical_data/1wk/TVSMOTOR.NS.xlsx
@@ -66505,7 +66505,9 @@
       <c r="P1246" t="n">
         <v>0</v>
       </c>
-      <c r="Q1246" t="inlineStr"/>
+      <c r="Q1246" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TVSMOTOR.NS.xlsx
+++ b/stock_historical_data/1wk/TVSMOTOR.NS.xlsx
@@ -70301,7 +70301,9 @@
       <c r="Q1247" t="n">
         <v>0</v>
       </c>
-      <c r="R1247" t="inlineStr"/>
+      <c r="R1247" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TVSMOTOR.NS.xlsx
+++ b/stock_historical_data/1wk/TVSMOTOR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1247"/>
+  <dimension ref="A1:R1249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70305,6 +70305,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1248">
+      <c r="A1248" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>2503.85009765625</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>2510.550048828125</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>2388.5</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>2435.39990234375</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>2435.39990234375</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>3799590</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1248" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1248" t="inlineStr"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>2435.39990234375</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>2483.550048828125</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>2327.10009765625</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>2364.85009765625</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>2364.85009765625</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>6300957</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1249" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1249" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/TVSMOTOR.NS.xlsx
+++ b/stock_historical_data/1wk/TVSMOTOR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1249"/>
+  <dimension ref="A1:R1252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70357,7 +70357,9 @@
       <c r="Q1248" t="n">
         <v>0</v>
       </c>
-      <c r="R1248" t="inlineStr"/>
+      <c r="R1248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1249">
       <c r="A1249" s="2" t="n">
@@ -70411,7 +70413,171 @@
       <c r="Q1249" t="n">
         <v>0</v>
       </c>
-      <c r="R1249" t="inlineStr"/>
+      <c r="R1249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>2364.85009765625</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>2439</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>2301.199951171875</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>2430.14990234375</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>2430.14990234375</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>4759764</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1250" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1250" t="inlineStr"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>2445.949951171875</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>2491.89990234375</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>2381.39990234375</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>2439.449951171875</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>2439.449951171875</v>
+      </c>
+      <c r="G1251" t="n">
+        <v>5769877</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1251" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1251" t="inlineStr"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>2445</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>2472.85009765625</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>2370</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>2404.550048828125</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>2404.550048828125</v>
+      </c>
+      <c r="G1252" t="n">
+        <v>2498039</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1252" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1252" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TVSMOTOR.NS.xlsx
+++ b/stock_historical_data/1wk/TVSMOTOR.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1252"/>
+  <dimension ref="A1:R1288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -70469,7 +70469,9 @@
       <c r="Q1250" t="n">
         <v>0</v>
       </c>
-      <c r="R1250" t="inlineStr"/>
+      <c r="R1250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1251">
       <c r="A1251" s="2" t="n">
@@ -70523,7 +70525,9 @@
       <c r="Q1251" t="n">
         <v>0</v>
       </c>
-      <c r="R1251" t="inlineStr"/>
+      <c r="R1251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1252">
       <c r="A1252" s="2" t="n">
@@ -70577,7 +70581,1881 @@
       <c r="Q1252" t="n">
         <v>0</v>
       </c>
-      <c r="R1252" t="inlineStr"/>
+      <c r="R1252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>2394.86905141132</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>2518.356974043273</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>2350.204169238655</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>2497.642822265625</v>
+      </c>
+      <c r="F1253" t="inlineStr"/>
+      <c r="G1253" t="n">
+        <v>3613622</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1253" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1253" t="inlineStr"/>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>2518.55623976294</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>2591.404062216835</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>2455.567437008885</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>2558.789306640625</v>
+      </c>
+      <c r="F1254" t="inlineStr"/>
+      <c r="G1254" t="n">
+        <v>6649225</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1254" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1254" t="inlineStr"/>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>2505.012263377769</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>2607.835880391016</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>2416.977418800507</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>2570.78955078125</v>
+      </c>
+      <c r="F1255" t="inlineStr"/>
+      <c r="G1255" t="n">
+        <v>7256073</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1255" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1255" t="inlineStr"/>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>2567.752097773352</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>2644.035866349239</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>2524.53142041255</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>2589.511962890625</v>
+      </c>
+      <c r="F1256" t="inlineStr"/>
+      <c r="G1256" t="n">
+        <v>5248454</v>
+      </c>
+      <c r="H1256" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1256" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1256" t="inlineStr"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>2611.719819605458</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>2806.362629737757</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>2574.5738071432</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>2755.5732421875</v>
+      </c>
+      <c r="F1257" t="inlineStr"/>
+      <c r="G1257" t="n">
+        <v>5921960</v>
+      </c>
+      <c r="H1257" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1257" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1257" t="inlineStr"/>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>2770.212528316691</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>2812.337893118425</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>2710.7092743812</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>2801.68212890625</v>
+      </c>
+      <c r="F1258" t="inlineStr"/>
+      <c r="G1258" t="n">
+        <v>4464380</v>
+      </c>
+      <c r="H1258" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1258" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1258" t="inlineStr"/>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>2847.691337616151</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>2848.189272803704</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>2721.564451861918</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>2740.93408203125</v>
+      </c>
+      <c r="F1259" t="inlineStr"/>
+      <c r="G1259" t="n">
+        <v>3442780</v>
+      </c>
+      <c r="H1259" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1259" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1259" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1259" t="inlineStr"/>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>2742.477599835787</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>2831.856961767921</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>2704.833652813376</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>2816.968505859375</v>
+      </c>
+      <c r="F1260" t="inlineStr"/>
+      <c r="G1260" t="n">
+        <v>2246197</v>
+      </c>
+      <c r="H1260" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1260" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1260" t="inlineStr"/>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>2829.068540457275</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>2838.230499055815</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>2716.834000577234</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>2803.97265625</v>
+      </c>
+      <c r="F1261" t="inlineStr"/>
+      <c r="G1261" t="n">
+        <v>3343883</v>
+      </c>
+      <c r="H1261" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1261" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1261" t="inlineStr"/>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>2821.201090309891</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>2945.784571573628</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>2801.831460127345</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>2937.518798828125</v>
+      </c>
+      <c r="F1262" t="inlineStr"/>
+      <c r="G1262" t="n">
+        <v>4982029</v>
+      </c>
+      <c r="H1262" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1262" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1262" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1262" t="inlineStr"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>2935.228222459971</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>2935.228222459971</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>2647.023435501454</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>2676.401611328125</v>
+      </c>
+      <c r="F1263" t="inlineStr"/>
+      <c r="G1263" t="n">
+        <v>4375015</v>
+      </c>
+      <c r="H1263" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1263" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1263" t="inlineStr"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>2676.899397832785</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>2816.32124146991</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>2610.325370243098</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>2782.810302734375</v>
+      </c>
+      <c r="F1264" t="inlineStr"/>
+      <c r="G1264" t="n">
+        <v>3427621</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1264" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1264" t="inlineStr"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>2782.760460340412</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>2836.238647447045</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>2583.885207739654</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>2704.68408203125</v>
+      </c>
+      <c r="F1265" t="inlineStr"/>
+      <c r="G1265" t="n">
+        <v>4837507</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1265" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>2704.136782420693</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>2760.45305892079</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>2365.192195213636</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>2439.683349609375</v>
+      </c>
+      <c r="F1266" t="inlineStr"/>
+      <c r="G1266" t="n">
+        <v>8278554</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1266" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>2439.633316304677</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>2514.572557881135</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>2398.55366560662</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>2499.335693359375</v>
+      </c>
+      <c r="F1267" t="inlineStr"/>
+      <c r="G1267" t="n">
+        <v>3640831</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1267" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>2513.427390556489</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>2513.427390556489</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>2385.109403277513</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>2457.708251953125</v>
+      </c>
+      <c r="F1268" t="inlineStr"/>
+      <c r="G1268" t="n">
+        <v>2750376</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1268" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1268" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>2444.861705943067</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>2483.302398654035</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>2347.21656963116</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>2386.254638671875</v>
+      </c>
+      <c r="F1269" t="inlineStr"/>
+      <c r="G1269" t="n">
+        <v>2259510</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1269" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1269" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>2399.05170987933</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>2459.700117869889</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>2351.249932347488</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>2404.280029296875</v>
+      </c>
+      <c r="F1270" t="inlineStr"/>
+      <c r="G1270" t="n">
+        <v>1727900</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1270" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>2454.820371685042</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>2478.571976388182</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>2387.001504731572</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>2424.396484375</v>
+      </c>
+      <c r="F1271" t="inlineStr"/>
+      <c r="G1271" t="n">
+        <v>3755200</v>
+      </c>
+      <c r="H1271" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1271" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>2446.903324465832</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>2562.175319003348</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>2440.87826014214</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>2511.136962890625</v>
+      </c>
+      <c r="F1272" t="inlineStr"/>
+      <c r="G1272" t="n">
+        <v>3802767</v>
+      </c>
+      <c r="H1272" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1272" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1272" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>2517.012480660423</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>2532.946406343855</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>2454.820425603759</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>2511.4853515625</v>
+      </c>
+      <c r="F1273" t="inlineStr"/>
+      <c r="G1273" t="n">
+        <v>1856909</v>
+      </c>
+      <c r="H1273" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1273" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1273" t="inlineStr"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>2511.485304706042</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>2536.581431695161</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>2371.914174279654</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>2381.773193359375</v>
+      </c>
+      <c r="F1274" t="inlineStr"/>
+      <c r="G1274" t="n">
+        <v>3115325</v>
+      </c>
+      <c r="H1274" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1274" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1274" t="inlineStr"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>2385.55758689454</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>2479.518051891105</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>2362.75225307884</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>2410.454345703125</v>
+      </c>
+      <c r="F1275" t="inlineStr"/>
+      <c r="G1275" t="n">
+        <v>1843315</v>
+      </c>
+      <c r="H1275" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1275" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1275" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1275" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1275" t="inlineStr"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>2408.811302015441</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>2503.618112708715</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>2323.813668597125</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>2472.6962890625</v>
+      </c>
+      <c r="F1276" t="inlineStr"/>
+      <c r="G1276" t="n">
+        <v>5541250</v>
+      </c>
+      <c r="H1276" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1276" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1276" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1276" t="inlineStr"/>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>2477.725505207763</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>2484.69659786711</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>2263.264721641898</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>2273.821044921875</v>
+      </c>
+      <c r="F1277" t="inlineStr"/>
+      <c r="G1277" t="n">
+        <v>3394746</v>
+      </c>
+      <c r="H1277" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1277" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1277" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1277" t="inlineStr"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>2267.69641097088</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>2297.622119687136</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>2162.432723267476</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>2291.74658203125</v>
+      </c>
+      <c r="F1278" t="inlineStr"/>
+      <c r="G1278" t="n">
+        <v>3885967</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1278" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1278" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1278" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>2304.443988664615</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>2316.892368032942</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>2234.832748489897</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>2261.32275390625</v>
+      </c>
+      <c r="F1279" t="inlineStr"/>
+      <c r="G1279" t="n">
+        <v>2884612</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1279" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1279" t="inlineStr"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>2255.447138689343</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>2676.899407492483</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>2207.89433113437</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>2544.54833984375</v>
+      </c>
+      <c r="F1280" t="inlineStr"/>
+      <c r="G1280" t="n">
+        <v>8986491</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1280" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>2539.369633908909</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>2708.76727274022</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>2517.211519269766</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>2594.889404296875</v>
+      </c>
+      <c r="F1281" t="inlineStr"/>
+      <c r="G1281" t="n">
+        <v>5905303</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1281" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1281" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>2605.196779954401</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>2639.056371131178</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>2358.718873594036</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>2391.48291015625</v>
+      </c>
+      <c r="F1282" t="inlineStr"/>
+      <c r="G1282" t="n">
+        <v>2214178</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1282" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>2391.482869523773</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>2414.985506135412</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>2293.041235080952</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>2315.3486328125</v>
+      </c>
+      <c r="F1283" t="inlineStr"/>
+      <c r="G1283" t="n">
+        <v>3635794</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1283" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>2300.012525874399</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>2386.105473138059</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>2183.694814784424</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>2216.3095703125</v>
+      </c>
+      <c r="F1284" t="inlineStr"/>
+      <c r="G1284" t="n">
+        <v>2919619</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1284" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1284" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>2259.580008147805</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>2349.357867118419</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>2238.816256989529</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>2323.265869140625</v>
+      </c>
+      <c r="F1285" t="inlineStr"/>
+      <c r="G1285" t="n">
+        <v>4557096</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1285" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>2323.265861566023</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>2331.730759611358</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>2209.63719956633</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>2241.6044921875</v>
+      </c>
+      <c r="F1286" t="inlineStr"/>
+      <c r="G1286" t="n">
+        <v>1988181</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1286" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>2249.223115886649</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>2439.882453249831</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>2246.733439913945</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>2403.8818359375</v>
+      </c>
+      <c r="F1287" t="inlineStr"/>
+      <c r="G1287" t="n">
+        <v>3661692</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1287" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1287" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1287" t="inlineStr"/>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>2423.948401617239</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>2457.807993094226</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>2360.212700013499</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>2409.85693359375</v>
+      </c>
+      <c r="F1288" t="inlineStr"/>
+      <c r="G1288" t="n">
+        <v>3202026</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1288" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1288" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
